--- a/assets/Design/01 编码定义 (Codes).xlsx
+++ b/assets/Design/01 编码定义 (Codes).xlsx
@@ -1260,7 +1260,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="5"/>

--- a/assets/Design/01 编码定义 (Codes).xlsx
+++ b/assets/Design/01 编码定义 (Codes).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>序号
 Index</t>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>尝试获取多语言支持资源字符串时，引发了一个未处理的异常。</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>参数值为 NULL 值，请关注。</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1266,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="5"/>
@@ -1477,9 +1483,27 @@
         <v>PLX0008: 尝试获取多语言支持资源字符串时，引发了一个未处理的异常。</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:1">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f>_xlfn.SWITCH(B10,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <v>D</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>"PL"&amp;C10&amp;RIGHT("0000"&amp;A10,4)</f>
+        <v>PLD0009</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>D10&amp;": "&amp;E10</f>
+        <v>PLD0009: 参数值为 NULL 值，请关注。</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
@@ -1534,7 +1558,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8:B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9:B10">
       <formula1>"Trace,Debug,Information,Warning,Error,Exception"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/Design/01 编码定义 (Codes).xlsx
+++ b/assets/Design/01 编码定义 (Codes).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>序号
 Index</t>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>参数值为 NULL 值，请关注。</t>
+  </si>
+  <si>
+    <t>参数值为 NULL 值，将使用 “ifNull”参数值替代，请关注。</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,9 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1266,7 +1266,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="5"/>
@@ -1283,19 +1283,19 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1307,18 +1307,18 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" ref="C2:C10" si="0">_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
         <v>X</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
+        <f t="shared" ref="D2:D10" si="1">"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
         <v>PLX0001</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f>D2&amp;": "&amp;E2</f>
+        <f t="shared" ref="F2:F10" si="2">D2&amp;": "&amp;E2</f>
         <v>PLX0001: 应用程序抛出了一个未处理的异常。</v>
       </c>
     </row>
@@ -1330,18 +1330,18 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>_xlfn.SWITCH(B3,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>"PL"&amp;C3&amp;RIGHT("0000"&amp;A3,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0002</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f>D3&amp;": "&amp;E3</f>
+        <f t="shared" si="2"/>
         <v>PLX0002: 缺少了一个必需的参数。</v>
       </c>
     </row>
@@ -1353,18 +1353,18 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>_xlfn.SWITCH(B4,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>"PL"&amp;C4&amp;RIGHT("0000"&amp;A4,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0003</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>D4&amp;": "&amp;E4</f>
+        <f t="shared" si="2"/>
         <v>PLX0003: 缺少了一个必需的参数 “{0}”。</v>
       </c>
     </row>
@@ -1376,18 +1376,18 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>_xlfn.SWITCH(B5,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>"PL"&amp;C5&amp;RIGHT("0000"&amp;A5,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0004</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f>D5&amp;": "&amp;E5</f>
+        <f t="shared" si="2"/>
         <v>PLX0004: 字符串参数不可以为 NULL 或空字符串。</v>
       </c>
     </row>
@@ -1399,18 +1399,18 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>_xlfn.SWITCH(B6,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>"PL"&amp;C6&amp;RIGHT("0000"&amp;A6,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0005</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>D6&amp;": "&amp;E6</f>
+        <f t="shared" si="2"/>
         <v>PLX0005: 字符串参数“{0}”不可以为 NULL 或空字符串。</v>
       </c>
     </row>
@@ -1422,18 +1422,18 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>_xlfn.SWITCH(B7,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>"PL"&amp;C7&amp;RIGHT("0000"&amp;A7,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0006</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>D7&amp;": "&amp;E7</f>
+        <f t="shared" si="2"/>
         <v>PLX0006: 字符串参数不可以为 NULL 、空字符串或空格符。</v>
       </c>
     </row>
@@ -1445,18 +1445,18 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>_xlfn.SWITCH(B8,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>"PL"&amp;C8&amp;RIGHT("0000"&amp;A8,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0007</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>D8&amp;": "&amp;E8</f>
+        <f t="shared" si="2"/>
         <v>PLX0007: 字符串参数“{0}”不可以为 NULL 、空字符串或空格符。</v>
       </c>
     </row>
@@ -1468,18 +1468,18 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>_xlfn.SWITCH(B9,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>"PL"&amp;C9&amp;RIGHT("0000"&amp;A9,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0008</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f>D9&amp;": "&amp;E9</f>
+        <f t="shared" si="2"/>
         <v>PLX0008: 尝试获取多语言支持资源字符串时，引发了一个未处理的异常。</v>
       </c>
     </row>
@@ -1491,24 +1491,42 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>_xlfn.SWITCH(B10,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>"PL"&amp;C10&amp;RIGHT("0000"&amp;A10,4)</f>
+        <f t="shared" si="1"/>
         <v>PLD0009</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f>D10&amp;": "&amp;E10</f>
+        <f t="shared" si="2"/>
         <v>PLD0009: 参数值为 NULL 值，请关注。</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:1">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>_xlfn.SWITCH(B11,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <v>D</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>"PL"&amp;C11&amp;RIGHT("0000"&amp;A11,4)</f>
+        <v>PLD0010</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>D11&amp;": "&amp;E11</f>
+        <v>PLD0010: 参数值为 NULL 值，将使用 “ifNull”参数值替代，请关注。</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
@@ -1558,7 +1576,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B11">
       <formula1>"Trace,Debug,Information,Warning,Error,Exception"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/Design/01 编码定义 (Codes).xlsx
+++ b/assets/Design/01 编码定义 (Codes).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>序号
 Index</t>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>参数值为 NULL 值，将使用 “ifNull”参数值替代，请关注。</t>
+  </si>
+  <si>
+    <t>参数 “{0}”超出了指定的范围。</t>
+  </si>
+  <si>
+    <t>参数 “{0}”超出了指定的范围 “{1}”。</t>
+  </si>
+  <si>
+    <t>参数超出了指定的范围。</t>
+  </si>
+  <si>
+    <t>参数超出了指定的范围 “{0}”。</t>
   </si>
 </sst>
 </file>
@@ -1307,18 +1319,18 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C10" si="0">_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" ref="C2:C11" si="0">_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
         <v>X</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D10" si="1">"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
+        <f t="shared" ref="D2:D11" si="1">"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
         <v>PLX0001</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f t="shared" ref="F2:F10" si="2">D2&amp;": "&amp;E2</f>
+        <f t="shared" ref="F2:F11" si="2">D2&amp;": "&amp;E2</f>
         <v>PLX0001: 应用程序抛出了一个未处理的异常。</v>
       </c>
     </row>
@@ -1514,39 +1526,111 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>_xlfn.SWITCH(B11,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>"PL"&amp;C11&amp;RIGHT("0000"&amp;A11,4)</f>
+        <f t="shared" si="1"/>
         <v>PLD0010</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>D11&amp;": "&amp;E11</f>
+        <f t="shared" si="2"/>
         <v>PLD0010: 参数值为 NULL 值，将使用 “ifNull”参数值替代，请关注。</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:1">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:1">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>_xlfn.SWITCH(B12,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <v>X</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>"PL"&amp;C12&amp;RIGHT("0000"&amp;A12,4)</f>
+        <v>PLX0011</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f>D12&amp;": "&amp;E12</f>
+        <v>PLX0011: 参数 “{0}”超出了指定的范围。</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>_xlfn.SWITCH(B13,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <v>X</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>"PL"&amp;C13&amp;RIGHT("0000"&amp;A13,4)</f>
+        <v>PLX0012</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f>D13&amp;": "&amp;E13</f>
+        <v>PLX0012: 参数 “{0}”超出了指定的范围 “{1}”。</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>_xlfn.SWITCH(B14,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <v>X</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>"PL"&amp;C14&amp;RIGHT("0000"&amp;A14,4)</f>
+        <v>PLX0013</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>D14&amp;": "&amp;E14</f>
+        <v>PLX0013: 参数超出了指定的范围。</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2">
         <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>_xlfn.SWITCH(B15,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <v>X</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>"PL"&amp;C15&amp;RIGHT("0000"&amp;A15,4)</f>
+        <v>PLX0014</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>D15&amp;": "&amp;E15</f>
+        <v>PLX0014: 参数超出了指定的范围 “{0}”。</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
@@ -1576,7 +1660,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B12 B13 B2:B10 B14:B15">
       <formula1>"Trace,Debug,Information,Warning,Error,Exception"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/Design/01 编码定义 (Codes).xlsx
+++ b/assets/Design/01 编码定义 (Codes).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>序号
 Index</t>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>参数超出了指定的范围 “{0}”。</t>
+  </si>
+  <si>
+    <t>Trace</t>
+  </si>
+  <si>
+    <t>默认文本编码程序已经更改为“{0} - {1}”。</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1284,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="5"/>
@@ -1319,18 +1325,18 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C11" si="0">_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" ref="C2:C15" si="0">_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
         <v>X</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D11" si="1">"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
+        <f t="shared" ref="D2:D15" si="1">"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
         <v>PLX0001</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f t="shared" ref="F2:F11" si="2">D2&amp;": "&amp;E2</f>
+        <f t="shared" ref="F2:F15" si="2">D2&amp;": "&amp;E2</f>
         <v>PLX0001: 应用程序抛出了一个未处理的异常。</v>
       </c>
     </row>
@@ -1549,18 +1555,18 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>_xlfn.SWITCH(B12,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>"PL"&amp;C12&amp;RIGHT("0000"&amp;A12,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0011</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f>D12&amp;": "&amp;E12</f>
+        <f t="shared" si="2"/>
         <v>PLX0011: 参数 “{0}”超出了指定的范围。</v>
       </c>
     </row>
@@ -1572,18 +1578,18 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>_xlfn.SWITCH(B13,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>"PL"&amp;C13&amp;RIGHT("0000"&amp;A13,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0012</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f>D13&amp;": "&amp;E13</f>
+        <f t="shared" si="2"/>
         <v>PLX0012: 参数 “{0}”超出了指定的范围 “{1}”。</v>
       </c>
     </row>
@@ -1595,18 +1601,18 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>_xlfn.SWITCH(B14,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>"PL"&amp;C14&amp;RIGHT("0000"&amp;A14,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0013</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f>D14&amp;": "&amp;E14</f>
+        <f t="shared" si="2"/>
         <v>PLX0013: 参数超出了指定的范围。</v>
       </c>
     </row>
@@ -1618,24 +1624,42 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>_xlfn.SWITCH(B15,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>"PL"&amp;C15&amp;RIGHT("0000"&amp;A15,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0014</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f>D15&amp;": "&amp;E15</f>
+        <f t="shared" si="2"/>
         <v>PLX0014: 参数超出了指定的范围 “{0}”。</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:1">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2">
         <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>_xlfn.SWITCH(B16,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <v>T</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f>"PL"&amp;C16&amp;RIGHT("0000"&amp;A16,4)</f>
+        <v>PLT0015</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f>D16&amp;": "&amp;E16</f>
+        <v>PLT0015: 默认文本编码程序已经更改为“{0} - {1}”。</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
@@ -1660,7 +1684,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B12 B13 B2:B10 B14:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14 B15:B16">
       <formula1>"Trace,Debug,Information,Warning,Error,Exception"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/Design/01 编码定义 (Codes).xlsx
+++ b/assets/Design/01 编码定义 (Codes).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>序号
 Index</t>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>默认文本编码程序已经更改为“{0} - {1}”。</t>
+  </si>
+  <si>
+    <t>错误的派生关系。类型 “{0}” 未派生自 “{1}”。</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1287,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="5"/>
@@ -1325,18 +1328,18 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C15" si="0">_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" ref="C2:C16" si="0">_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
         <v>X</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D15" si="1">"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
+        <f t="shared" ref="D2:D16" si="1">"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
         <v>PLX0001</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f t="shared" ref="F2:F15" si="2">D2&amp;": "&amp;E2</f>
+        <f t="shared" ref="F2:F16" si="2">D2&amp;": "&amp;E2</f>
         <v>PLX0001: 应用程序抛出了一个未处理的异常。</v>
       </c>
     </row>
@@ -1647,24 +1650,42 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>_xlfn.SWITCH(B16,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>T</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>"PL"&amp;C16&amp;RIGHT("0000"&amp;A16,4)</f>
+        <f t="shared" si="1"/>
         <v>PLT0015</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f>D16&amp;": "&amp;E16</f>
+        <f t="shared" si="2"/>
         <v>PLT0015: 默认文本编码程序已经更改为“{0} - {1}”。</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:1">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f>_xlfn.SWITCH(B17,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <v>X</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f>"PL"&amp;C17&amp;RIGHT("0000"&amp;A17,4)</f>
+        <v>PLX0016</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>D17&amp;": "&amp;E17</f>
+        <v>PLX0016: 错误的派生关系。类型 “{0}” 未派生自 “{1}”。</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
@@ -1684,7 +1705,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14 B15:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15 B16:B17">
       <formula1>"Trace,Debug,Information,Warning,Error,Exception"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/Design/01 编码定义 (Codes).xlsx
+++ b/assets/Design/01 编码定义 (Codes).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>序号
 Index</t>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>错误的派生关系。类型 “{0}” 未派生自 “{1}”。</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>文件或路径 “{0}” 不存在，请关注。</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1289,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1328,18 +1334,18 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C16" si="0">_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" ref="C2:C17" si="0">_xlfn.SWITCH(B2,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
         <v>X</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D16" si="1">"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
+        <f t="shared" ref="D2:D17" si="1">"PL"&amp;C2&amp;RIGHT("0000"&amp;A2,4)</f>
         <v>PLX0001</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f t="shared" ref="F2:F16" si="2">D2&amp;": "&amp;E2</f>
+        <f t="shared" ref="F2:F17" si="2">D2&amp;": "&amp;E2</f>
         <v>PLX0001: 应用程序抛出了一个未处理的异常。</v>
       </c>
     </row>
@@ -1673,24 +1679,42 @@
         <v>6</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>_xlfn.SWITCH(B17,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>"PL"&amp;C17&amp;RIGHT("0000"&amp;A17,4)</f>
+        <f t="shared" si="1"/>
         <v>PLX0016</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="4" t="str">
-        <f>D17&amp;": "&amp;E17</f>
+        <f t="shared" si="2"/>
         <v>PLX0016: 错误的派生关系。类型 “{0}” 未派生自 “{1}”。</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:1">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2">
         <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f>_xlfn.SWITCH(B18,"Trace","T","Debug","D","Information","I","Warning","W","Error","E","Exception","X")</f>
+        <v>W</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f>"PL"&amp;C18&amp;RIGHT("0000"&amp;A18,4)</f>
+        <v>PLW0017</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>D18&amp;": "&amp;E18</f>
+        <v>PLW0017: 文件或路径 “{0}” 不存在，请关注。</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
@@ -1705,7 +1729,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15 B16:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16 B17:B18">
       <formula1>"Trace,Debug,Information,Warning,Error,Exception"</formula1>
     </dataValidation>
   </dataValidations>
